--- a/LuBan/cfgs/Datas/商店钻石表.xlsx
+++ b/LuBan/cfgs/Datas/商店钻石表.xlsx
@@ -104,37 +104,37 @@
     <t>c</t>
   </si>
   <si>
-    <t>Z001</t>
+    <t>com.backpack.6.1</t>
   </si>
   <si>
     <t>首充送60钻石</t>
   </si>
   <si>
-    <t>Z002</t>
+    <t>com.backpack.30.3</t>
   </si>
   <si>
     <t>首充送300钻石</t>
   </si>
   <si>
-    <t>Z003</t>
+    <t>com.backpack.68.3</t>
   </si>
   <si>
     <t>首充送680钻石</t>
   </si>
   <si>
-    <t>Z004</t>
+    <t>com.backpack.128</t>
   </si>
   <si>
     <t>首充送1280钻石</t>
   </si>
   <si>
-    <t>Z005</t>
+    <t>com.backpack.328</t>
   </si>
   <si>
     <t>首充送3280钻石</t>
   </si>
   <si>
-    <t>Z006</t>
+    <t>com.backpack.648</t>
   </si>
   <si>
     <t>首充送6480钻石</t>
@@ -1138,10 +1138,10 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1150,8 +1150,7 @@
     <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="3" customWidth="1"/>
+    <col min="5" max="6" width="24" style="3" customWidth="1"/>
     <col min="7" max="7" width="21.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
     <col min="9" max="10" width="15.875" style="3" customWidth="1"/>
@@ -1287,7 +1286,7 @@
         <v>6</v>
       </c>
       <c r="D5" s="3">
-        <v>0.19</v>
+        <v>0.99</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>25</v>
@@ -1316,7 +1315,7 @@
         <v>30</v>
       </c>
       <c r="D6" s="3">
-        <v>1.19</v>
+        <v>3.99</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>27</v>
@@ -1345,7 +1344,7 @@
         <v>68</v>
       </c>
       <c r="D7" s="3">
-        <v>2.19</v>
+        <v>9.99</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>29</v>
@@ -1374,7 +1373,7 @@
         <v>128</v>
       </c>
       <c r="D8" s="3">
-        <v>3.19</v>
+        <v>19.99</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>31</v>
@@ -1403,7 +1402,7 @@
         <v>328</v>
       </c>
       <c r="D9" s="3">
-        <v>4.19</v>
+        <v>49.99</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>33</v>
@@ -1432,7 +1431,7 @@
         <v>648</v>
       </c>
       <c r="D10" s="3">
-        <v>5.19</v>
+        <v>99.99</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>35</v>
